--- a/datasets_single/kpccatania_caz_avi_powder_4-1.xlsx
+++ b/datasets_single/kpccatania_caz_avi_powder_4-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F546466E-FF83-4D42-B886-C5A1172DFBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A33991-9C3D-F94C-9467-A1CA052250EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="17440" xr2:uid="{6D56EFBB-B7C5-BD41-BD9F-0449F07A19DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
   <si>
     <t>replicate</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48B702-0CC0-464B-B411-D77A7FC01634}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J1" sqref="J1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,6 +716,386 @@
         <v>150</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>10000</v>
+      </c>
+      <c r="D17">
+        <v>13.5</v>
+      </c>
+      <c r="E17">
+        <v>400</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>10000</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>600</v>
+      </c>
+      <c r="F18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>10000</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>10000</v>
+      </c>
+      <c r="D20">
+        <v>11.5</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>10000</v>
+      </c>
+      <c r="D21">
+        <v>13.4</v>
+      </c>
+      <c r="E21">
+        <v>400</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>10000</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>600</v>
+      </c>
+      <c r="F23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>10000</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>10000</v>
+      </c>
+      <c r="D26">
+        <v>11.5</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>10000</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>400</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>10000</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>600</v>
+      </c>
+      <c r="F29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>10000</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+      <c r="D31">
+        <v>11.8</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>10000</v>
+      </c>
+      <c r="D32">
+        <v>13.6</v>
+      </c>
+      <c r="E32">
+        <v>400</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+      <c r="D33">
+        <v>21.5</v>
+      </c>
+      <c r="E33">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>10000</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>600</v>
+      </c>
+      <c r="F34">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
